--- a/Informatica taken.xlsx
+++ b/Informatica taken.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>naam</t>
   </si>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-m"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -111,8 +111,11 @@
     <font>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +124,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,12 +162,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -203,7 +200,10 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -215,13 +215,10 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -327,40 +324,38 @@
       </c>
     </row>
     <row r="7">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>2.0</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <v>3.0</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>1.0</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>3.0</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9">
       <c r="F9" s="7">
@@ -374,7 +369,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>3.0</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -396,7 +391,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>7.0</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -407,7 +402,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>6.0</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -418,15 +413,20 @@
       </c>
     </row>
     <row r="14">
-      <c r="F14" s="12">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3">
         <v>2.0</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="13">
         <v>43255.0</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15">
       <c r="F15" s="14">
